--- a/assembly/gesc-all-pos.xlsx
+++ b/assembly/gesc-all-pos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="402">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -172,796 +172,799 @@
     <t xml:space="preserve">C15</t>
   </si>
   <si>
-    <t xml:space="preserve">-47.662500</t>
+    <t xml:space="preserve">-49.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-47.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.175000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.875000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.637500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.775000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-48.850000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.825000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.850000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.162500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-39.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.562500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.162500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-40.561500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.875000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-36.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.237500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-39.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-30.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.337500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-30.754000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.028000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.037500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-38.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-29.062500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-45.917500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.483000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.642000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-30.537500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-40.629500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-52.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.837500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.937500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-12.801000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-26.337500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.762500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-31.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-38.754000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.119499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-30.118000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.017328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-34.436000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.055999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-35.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-49.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-33.850000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.037500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-26.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-48.025000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.950000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-51.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.775000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.950000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-52.075000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.825000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17.575736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.321320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">315.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-37.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.050000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9.700000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.350000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-25.650000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.150000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.250000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.850000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-26.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-34.712500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-37.625000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.137500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-35.325000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.087500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-20.152005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.787500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.390000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.762499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17.850000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.637500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.575000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.462500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13.250000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-44.662500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-36.595000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.959000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.277000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.450000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.525000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-51.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-53.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-40.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.880001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-45.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-41.910000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.468000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-39.624000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-32.638000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.586500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-30.226000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-49.962500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-15.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-47.750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-29.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.237500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-42.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-23.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.600000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-50.400000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-40.300000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.037500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R31</t>
   </si>
   <si>
     <t xml:space="preserve">22.300000</t>
   </si>
   <si>
-    <t xml:space="preserve">C16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-47.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.175000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.875000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-49.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.637500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.775000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-48.850000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.825000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.850000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-42.562500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-37.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-43.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.162500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-40.561500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.875000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-36.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.562500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-39.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-30.754000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.028000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-23.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-38.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-29.062500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-45.917500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.483000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.642000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-30.537500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-40.629500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-52.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.837500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.937500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-12.801000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-42.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-26.337500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.762500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-31.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-38.754000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.119499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-30.118000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.017328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-34.436000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.055999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-35.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-49.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-33.850000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.037500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-26.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-48.025000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.950000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-51.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.775000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-42.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.950000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-52.075000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-19.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.125000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17.575736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-21.321320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">315.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-37.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.050000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-25.550000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.450000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.050000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.700000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-26.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-34.712500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-37.625000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.137500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-35.325000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-28.087500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-20.152005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.787500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.390000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-46.762499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17.850000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-42.637500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15.575000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-43.462500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13.250000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-44.662500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-36.595000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-27.959000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.277000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.450000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-46.525000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-51.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-53.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-40.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.880001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-45.600000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-41.910000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.468000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-39.624000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-32.638000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.586500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-30.226000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-49.962500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-15.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-17.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-47.750000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-29.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.237500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.200000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-42.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-23.500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-50.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-40.300000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.037500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.950000</t>
+    <t xml:space="preserve">37.650000</t>
   </si>
   <si>
     <t xml:space="preserve">R32</t>
@@ -970,7 +973,7 @@
     <t xml:space="preserve">-31.700000</t>
   </si>
   <si>
-    <t xml:space="preserve">29.400000</t>
+    <t xml:space="preserve">30.100000</t>
   </si>
   <si>
     <t xml:space="preserve">R33</t>
@@ -1000,7 +1003,10 @@
     <t xml:space="preserve">R36</t>
   </si>
   <si>
-    <t xml:space="preserve">-18.962500</t>
+    <t xml:space="preserve">-20.437500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.600000</t>
   </si>
   <si>
     <t xml:space="preserve">R37</t>
@@ -1045,10 +1051,10 @@
     <t xml:space="preserve">R42</t>
   </si>
   <si>
-    <t xml:space="preserve">-3.362500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.800000</t>
+    <t xml:space="preserve">-3.862500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.500000</t>
   </si>
   <si>
     <t xml:space="preserve">R43</t>
@@ -1057,7 +1063,7 @@
     <t xml:space="preserve">-11.200000</t>
   </si>
   <si>
-    <t xml:space="preserve">29.500000</t>
+    <t xml:space="preserve">30.200000</t>
   </si>
   <si>
     <t xml:space="preserve">R44</t>
@@ -1072,7 +1078,7 @@
     <t xml:space="preserve">-18.800000</t>
   </si>
   <si>
-    <t xml:space="preserve">37.100000</t>
+    <t xml:space="preserve">37.800000</t>
   </si>
   <si>
     <t xml:space="preserve">R46</t>
@@ -1102,10 +1108,10 @@
     <t xml:space="preserve">U3</t>
   </si>
   <si>
-    <t xml:space="preserve">-45.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.800000</t>
+    <t xml:space="preserve">-45.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.300000</t>
   </si>
   <si>
     <t xml:space="preserve">U4</t>
@@ -1138,6 +1144,15 @@
     <t xml:space="preserve">6.300000</t>
   </si>
   <si>
+    <t xml:space="preserve">U8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-37.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.500000</t>
+  </si>
+  <si>
     <t xml:space="preserve">U9</t>
   </si>
   <si>
@@ -1165,10 +1180,10 @@
     <t xml:space="preserve">U12</t>
   </si>
   <si>
-    <t xml:space="preserve">-35.800000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.900000</t>
+    <t xml:space="preserve">-35.500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.400000</t>
   </si>
   <si>
     <t xml:space="preserve">U13</t>
@@ -1186,10 +1201,7 @@
     <t xml:space="preserve">U15</t>
   </si>
   <si>
-    <t xml:space="preserve">-26.400000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.850000</t>
+    <t xml:space="preserve">-26.065000</t>
   </si>
   <si>
     <t xml:space="preserve">U16</t>
@@ -1214,15 +1226,6 @@
   </si>
   <si>
     <t xml:space="preserve">-8.150000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-37.100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.500000</t>
   </si>
 </sst>
 </file>
@@ -1237,6 +1240,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1320,16 +1324,16 @@
   </sheetPr>
   <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A129" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H142" activeCellId="0" sqref="H142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1598,7 +1602,7 @@
         <v>51</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>9</v>
@@ -1643,10 +1647,10 @@
         <v>58</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>34</v>
@@ -1657,13 +1661,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>8</v>
@@ -1674,13 +1678,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="C21" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>66</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>34</v>
@@ -1691,16 +1695,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="D22" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>9</v>
@@ -1708,16 +1712,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="D23" s="0" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>9</v>
@@ -1725,13 +1729,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>74</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>16</v>
@@ -1742,13 +1746,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C25" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>77</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>22</v>
@@ -1759,10 +1763,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>79</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>42</v>
@@ -1776,13 +1780,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="C27" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>82</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>16</v>
@@ -1793,16 +1797,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="D28" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>9</v>
@@ -1810,13 +1814,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>16</v>
@@ -1827,16 +1831,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="D30" s="0" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>9</v>
@@ -1844,13 +1848,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C31" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>22</v>
@@ -1861,13 +1865,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="C32" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>8</v>
@@ -1878,16 +1882,16 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="D33" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>9</v>
@@ -1895,13 +1899,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C34" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>100</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>34</v>
@@ -1912,13 +1916,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="C35" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>103</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>34</v>
@@ -1929,13 +1933,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="C36" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>106</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>22</v>
@@ -1946,13 +1950,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="C37" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>109</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>8</v>
@@ -1963,13 +1967,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="C38" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>112</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>8</v>
@@ -1980,13 +1984,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="C39" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>115</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>8</v>
@@ -1997,13 +2001,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>117</v>
-      </c>
       <c r="C40" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>8</v>
@@ -2014,13 +2018,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>22</v>
@@ -2031,10 +2035,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>121</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>48</v>
@@ -2048,10 +2052,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>123</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>33</v>
@@ -2065,13 +2069,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="C44" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>8</v>
@@ -2082,13 +2086,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="C45" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>8</v>
@@ -2099,13 +2103,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="C46" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>130</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>8</v>
@@ -2116,13 +2120,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="C47" s="0" t="s">
         <v>132</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>133</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>8</v>
@@ -2133,13 +2137,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>135</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>22</v>
@@ -2150,13 +2154,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="C49" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>138</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>8</v>
@@ -2167,13 +2171,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="C50" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>141</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>34</v>
@@ -2184,13 +2188,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>143</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>8</v>
@@ -2201,13 +2205,13 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>145</v>
-      </c>
       <c r="C52" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>8</v>
@@ -2218,13 +2222,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>147</v>
-      </c>
       <c r="C53" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>8</v>
@@ -2235,13 +2239,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>149</v>
-      </c>
       <c r="C54" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>8</v>
@@ -2252,13 +2256,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="C55" s="0" t="s">
         <v>151</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>152</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>22</v>
@@ -2269,13 +2273,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="C56" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>155</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>22</v>
@@ -2286,13 +2290,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="C57" s="0" t="s">
         <v>157</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>158</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>34</v>
@@ -2303,13 +2307,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="C58" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>161</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>34</v>
@@ -2320,13 +2324,13 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="C59" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>164</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>34</v>
@@ -2337,13 +2341,13 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="C60" s="0" t="s">
         <v>166</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>167</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>34</v>
@@ -2354,13 +2358,13 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="C61" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>170</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>16</v>
@@ -2371,13 +2375,13 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="C62" s="0" t="s">
         <v>172</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>173</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>8</v>
@@ -2388,13 +2392,13 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="C63" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>176</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>34</v>
@@ -2405,13 +2409,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="C64" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>179</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>34</v>
@@ -2422,13 +2426,13 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B65" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="C65" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>22</v>
@@ -2439,16 +2443,16 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B66" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="C66" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="D66" s="0" t="s">
         <v>185</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>186</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>9</v>
@@ -2456,16 +2460,16 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="C67" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="D67" s="0" t="s">
         <v>189</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>190</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>9</v>
@@ -2473,16 +2477,16 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="C68" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="D68" s="0" t="s">
         <v>193</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>194</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>9</v>
@@ -2490,13 +2494,13 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B69" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="C69" s="0" t="s">
         <v>196</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>197</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>22</v>
@@ -2507,13 +2511,13 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="C70" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>200</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>16</v>
@@ -2524,16 +2528,16 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B71" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="C71" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="D71" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>204</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>9</v>
@@ -2541,16 +2545,16 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B72" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="C72" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="D72" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>208</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>9</v>
@@ -2558,13 +2562,13 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B73" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="C73" s="0" t="s">
         <v>210</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>211</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>16</v>
@@ -2575,13 +2579,13 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="C74" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>8</v>
@@ -2592,13 +2596,13 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B75" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="C75" s="0" t="s">
         <v>216</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>217</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>22</v>
@@ -2609,13 +2613,13 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B76" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="C76" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>220</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>16</v>
@@ -2626,13 +2630,13 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="C77" s="0" t="s">
         <v>222</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>223</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>22</v>
@@ -2643,13 +2647,13 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="C78" s="0" t="s">
         <v>225</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>226</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>16</v>
@@ -2660,13 +2664,13 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B79" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="C79" s="0" t="s">
         <v>228</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>229</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>22</v>
@@ -2677,10 +2681,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B80" s="0" t="s">
         <v>230</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>228</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>231</v>
@@ -2836,7 +2840,7 @@
         <v>257</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>34</v>
@@ -2853,7 +2857,7 @@
         <v>259</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>34</v>
@@ -2870,7 +2874,7 @@
         <v>261</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>34</v>
@@ -2904,7 +2908,7 @@
         <v>266</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>8</v>
@@ -2921,7 +2925,7 @@
         <v>268</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>8</v>
@@ -3122,7 +3126,7 @@
         <v>298</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>299</v>
@@ -3207,10 +3211,10 @@
         <v>312</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>22</v>
@@ -3221,13 +3225,13 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>22</v>
@@ -3238,13 +3242,13 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>8</v>
@@ -3255,13 +3259,13 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>8</v>
@@ -3272,13 +3276,13 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>22</v>
@@ -3289,13 +3293,13 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>71</v>
+        <v>328</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>22</v>
@@ -3306,13 +3310,13 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>8</v>
@@ -3323,13 +3327,13 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>293</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>16</v>
@@ -3340,13 +3344,13 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>16</v>
@@ -3357,13 +3361,13 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>8</v>
@@ -3374,13 +3378,13 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>8</v>
@@ -3391,13 +3395,13 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>22</v>
@@ -3408,13 +3412,13 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>22</v>
@@ -3425,13 +3429,13 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>8</v>
@@ -3442,13 +3446,13 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>22</v>
@@ -3459,13 +3463,13 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B126" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C126" s="0" t="s">
         <v>352</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>350</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>22</v>
@@ -3476,16 +3480,16 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E127" s="0" t="s">
         <v>9</v>
@@ -3493,16 +3497,16 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E128" s="0" t="s">
         <v>9</v>
@@ -3510,13 +3514,13 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>16</v>
@@ -3527,16 +3531,16 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E130" s="0" t="s">
         <v>9</v>
@@ -3544,16 +3548,16 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E131" s="0" t="s">
         <v>9</v>
@@ -3561,16 +3565,16 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B132" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C132" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="C132" s="0" t="s">
-        <v>367</v>
-      </c>
       <c r="D132" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E132" s="0" t="s">
         <v>9</v>
@@ -3578,16 +3582,16 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>54</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E133" s="0" t="s">
         <v>9</v>
@@ -3595,16 +3599,16 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E134" s="0" t="s">
         <v>9</v>
@@ -3612,13 +3616,13 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>8</v>
@@ -3629,16 +3633,16 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E136" s="0" t="s">
         <v>9</v>
@@ -3646,16 +3650,16 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E137" s="0" t="s">
         <v>9</v>
@@ -3663,16 +3667,16 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E138" s="0" t="s">
         <v>9</v>
@@ -3680,16 +3684,16 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>137</v>
+        <v>360</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E139" s="0" t="s">
         <v>9</v>
@@ -3697,16 +3701,16 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>389</v>
+        <v>136</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E140" s="0" t="s">
         <v>9</v>
@@ -3714,16 +3718,16 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>145</v>
+        <v>363</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E141" s="0" t="s">
         <v>9</v>
@@ -3731,16 +3735,16 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>394</v>
+        <v>144</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E142" s="0" t="s">
         <v>9</v>
@@ -3748,16 +3752,16 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E143" s="0" t="s">
         <v>9</v>
@@ -3765,16 +3769,16 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E144" s="0" t="s">
         <v>9</v>
